--- a/data/georgia_census/imereti/xaragauli/population_total.xlsx
+++ b/data/georgia_census/imereti/xaragauli/population_total.xlsx
@@ -1355,13 +1355,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64C2F59D-2AD2-478F-B428-23B87983F99A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E83C6FD-341E-4A28-8098-44BC329E3000}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A29353EA-F206-4ED7-B0D3-5316567DD0B3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4B1840-7EDE-47FF-820B-3A49CDA8EFF9}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{145DE060-AE7D-47FA-954F-C7CBF5DCD441}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF9C508D-F2A3-4D5E-BEF4-D01040EAE2D5}"/>
 </file>